--- a/PythonResources/Data/Consumption/Sympheny/futu_1800_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1800_hea.xlsx
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20.36799758040551</v>
+        <v>20.3679975804055</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>86.40437590229247</v>
+        <v>86.40437590229246</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>48.60055648328822</v>
+        <v>48.60055648328821</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>44.13942913278522</v>
+        <v>44.13942913278521</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>38.75131808699639</v>
+        <v>38.75131808699638</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>63.6421344715431</v>
+        <v>63.64213447154309</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>89.26973144728444</v>
+        <v>89.26973144728443</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>100.0743814296123</v>
+        <v>100.0743814296122</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>75.00098178797953</v>
+        <v>75.00098178797951</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>5.1219439284766</v>
+        <v>5.121943928476599</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>6.821902488231733</v>
+        <v>6.821902488231732</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>58.63325734978205</v>
+        <v>58.63325734978204</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>64.46595716122015</v>
+        <v>64.46595716122013</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>77.39068303722414</v>
+        <v>77.39068303722412</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>35.94633517596865</v>
+        <v>35.94633517596864</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>81.34421134876568</v>
+        <v>81.34421134876567</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>37.16902754926378</v>
+        <v>37.16902754926377</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>75.83623424816436</v>
+        <v>75.83623424816435</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>98.37808625784039</v>
+        <v>98.37808625784038</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>35.50028105512608</v>
+        <v>35.50028105512607</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>75.81044399676216</v>
+        <v>75.81044399676215</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>89.09213039785567</v>
+        <v>89.09213039785566</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>6.502074063740607</v>
+        <v>6.502074063740606</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>47.95843783758121</v>
+        <v>47.9584378375812</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>54.3476795514372</v>
+        <v>54.34767955143719</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>59.38967370056698</v>
+        <v>59.38967370056697</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>30.72908454571938</v>
+        <v>30.72908454571937</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>5.08358092951583</v>
+        <v>5.083580929515829</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>51.08667810425241</v>
+        <v>51.0866781042524</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>2.52463408615468</v>
+        <v>2.524634086154679</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>0.3476906881366602</v>
+        <v>0.3476906881366601</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>44.87562358190252</v>
+        <v>44.87562358190251</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>6.67574796125132</v>
+        <v>6.675747961251319</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>33.9056815337697</v>
+        <v>33.90568153376969</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>18.49524433625565</v>
+        <v>18.49524433625564</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>75.10971114332288</v>
+        <v>75.10971114332287</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>46.17275599901763</v>
+        <v>46.17275599901762</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>30.86565564973557</v>
+        <v>30.86565564973556</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>74.45323201672147</v>
+        <v>74.45323201672146</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>73.11536272523243</v>
+        <v>73.11536272523242</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>126.7948403085218</v>
+        <v>126.7948403085217</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>57.45833555578872</v>
+        <v>57.45833555578871</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>50.98000024617968</v>
+        <v>50.98000024617967</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>53.26507513462219</v>
+        <v>53.26507513462218</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>18.42162489134392</v>
+        <v>18.42162489134391</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>7.95365491823025</v>
+        <v>7.953654918230249</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>96.42681928243316</v>
+        <v>96.42681928243314</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>95.50628314999788</v>
+        <v>95.50628314999786</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>39.19707913680029</v>
+        <v>39.19707913680028</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>35.53603572184277</v>
+        <v>35.53603572184276</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>29.85543977946991</v>
+        <v>29.8554397794699</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>53.21964912362968</v>
+        <v>53.21964912362967</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>29.33435947273004</v>
+        <v>29.33435947273003</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>37.27101627071793</v>
+        <v>37.27101627071792</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>70.44021028433167</v>
+        <v>70.44021028433166</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>47.41596334501906</v>
+        <v>47.41596334501905</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>57.74671745783148</v>
+        <v>57.74671745783147</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>56.07767789265512</v>
+        <v>56.07767789265511</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>5.620018158681556</v>
+        <v>5.620018158681555</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>23.47830189951064</v>
+        <v>23.47830189951063</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>67.23254776618325</v>
+        <v>67.23254776618323</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>5.030388535998796</v>
+        <v>5.030388535998795</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>58.94420572180174</v>
+        <v>58.94420572180173</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>62.62254032804028</v>
+        <v>62.62254032804027</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>103.322487751096</v>
+        <v>103.3224877510959</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>16.76023448027662</v>
+        <v>16.76023448027661</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>5.093867722972843</v>
+        <v>5.093867722972842</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>39.39314366166473</v>
+        <v>39.39314366166472</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>61.52704078552417</v>
+        <v>61.52704078552416</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>71.62245885429154</v>
+        <v>71.62245885429152</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>81.44620007021983</v>
+        <v>81.44620007021982</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>5.863530884705268</v>
+        <v>5.863530884705267</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>6.660713416967993</v>
+        <v>6.660713416967992</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>6.272423597845577</v>
+        <v>6.272423597845576</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>2.550008176681979</v>
+        <v>2.550008176681978</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>721</v>
       </c>
       <c r="B721">
-        <v>29.05550237944377</v>
+        <v>29.05550237944376</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>44.58782782193708</v>
+        <v>44.58782782193707</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>56.56417581683295</v>
+        <v>56.56417581683294</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>6.307181823030812</v>
+        <v>6.307181823030811</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>67.29614418157276</v>
+        <v>67.29614418157274</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>6.931628285106541</v>
+        <v>6.93162828510654</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>8.224833550303593</v>
+        <v>8.224833550303591</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>6.074805796476231</v>
+        <v>6.07480579647623</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>27.07636434825984</v>
+        <v>27.07636434825983</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>90.08827885826558</v>
+        <v>90.08827885826555</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>808</v>
       </c>
       <c r="B808">
-        <v>27.71162513166217</v>
+        <v>27.71162513166216</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>27.09515020183803</v>
+        <v>27.09515020183802</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>89.78495033325109</v>
+        <v>89.78495033325107</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>13.46813819588986</v>
+        <v>13.46813819588985</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>30.90756480826414</v>
+        <v>30.90756480826413</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>58.43689975387895</v>
+        <v>58.43689975387894</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>4.739193151984883</v>
+        <v>4.739193151984882</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>7.856120876563755</v>
+        <v>7.856120876563754</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>6.062995033618179</v>
+        <v>6.062995033618178</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>2.98434238668848</v>
+        <v>2.984342386688479</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>10.30001096085685</v>
+        <v>10.30001096085684</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>69.40625565993444</v>
+        <v>69.40625565993443</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>22.56556145670374</v>
+        <v>22.56556145670373</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>73.33721750149907</v>
+        <v>73.33721750149905</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>28.07154567424217</v>
+        <v>28.07154567424216</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>87.58076305147911</v>
+        <v>87.5807630514791</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>26.07350456106458</v>
+        <v>26.07350456106457</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>11.33765828034121</v>
+        <v>11.3376582803412</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>8.74565009310867</v>
+        <v>8.745650093108669</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>77.47684592259057</v>
+        <v>77.47684592259056</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>34.43526090063075</v>
+        <v>34.43526090063074</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>973</v>
       </c>
       <c r="B973">
-        <v>42.00206204782803</v>
+        <v>42.00206204782802</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>84.17176072977034</v>
+        <v>84.17176072977033</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>89.20085975319903</v>
+        <v>89.20085975319901</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>37.75487655554781</v>
+        <v>37.7548765555478</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>1000</v>
       </c>
       <c r="B1000">
-        <v>25.60154296040435</v>
+        <v>25.60154296040434</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>39.23517837182627</v>
+        <v>39.23517837182626</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>39.20997426250139</v>
+        <v>39.20997426250138</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>79.89438892050801</v>
+        <v>79.89438892050799</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>87.97289210120799</v>
+        <v>87.97289210120798</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>8.127387429948696</v>
+        <v>8.127387429948694</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>2.514449867561198</v>
+        <v>2.514449867561197</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>20.5374512549595</v>
+        <v>20.53745125495949</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>59.85096751541994</v>
+        <v>59.85096751541993</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>64.83815738032006</v>
+        <v>64.83815738032004</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>0.6545829569812747</v>
+        <v>0.6545829569812746</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>75.89250388758734</v>
+        <v>75.89250388758732</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>8.350238647746783</v>
+        <v>8.350238647746782</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>7.58101509257235</v>
+        <v>7.581015092572349</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>63.18846050369534</v>
+        <v>63.18846050369533</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>70.14479467736103</v>
+        <v>70.14479467736102</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>79.54328981619172</v>
+        <v>79.5432898161917</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>76.30778554937046</v>
+        <v>76.30778554937045</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>7.044665784718222</v>
+        <v>7.044665784718221</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>8.064846070298366</v>
+        <v>8.064846070298364</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>37.35776529816169</v>
+        <v>37.35776529816168</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>50.14709235430414</v>
+        <v>50.14709235430413</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>55.11757717000055</v>
+        <v>55.11757717000054</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>57.79214346882399</v>
+        <v>57.79214346882398</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>57.28278600363057</v>
+        <v>57.28278600363056</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9815,7 +9815,7 @@
         <v>1184</v>
       </c>
       <c r="B1184">
-        <v>2.037632079790349</v>
+        <v>2.037632079790348</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>3.697149766920604</v>
+        <v>3.697149766920603</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>5.894361957972442</v>
+        <v>5.894361957972441</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>4.893641589359412</v>
+        <v>4.893641589359411</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>52.99486363697643</v>
+        <v>52.99486363697642</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>9.692504004815744</v>
+        <v>9.692504004815742</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>61.46578893844395</v>
+        <v>61.46578893844394</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>31.26686990166295</v>
+        <v>31.26686990166294</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10527,7 +10527,7 @@
         <v>1273</v>
       </c>
       <c r="B1273">
-        <v>68.7916856918616</v>
+        <v>68.79168569186159</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>26.9355144070792</v>
+        <v>26.93551440707919</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>21.05278736934161</v>
+        <v>21.0527873693416</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>32.1399285258351</v>
+        <v>32.13992852583509</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10711,7 +10711,7 @@
         <v>1296</v>
       </c>
       <c r="B1296">
-        <v>51.935118761177</v>
+        <v>51.93511876117699</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>77.52520264396969</v>
+        <v>77.52520264396968</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>5.215580125328899</v>
+        <v>5.215580125328898</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>5.600118635156451</v>
+        <v>5.60011863515645</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>40.62609352131301</v>
+        <v>40.626093521313</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>59.35157446554101</v>
+        <v>59.351574465541</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>2.438860985269664</v>
+        <v>2.438860985269663</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>7.4699411689197</v>
+        <v>7.469941168919699</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>3.683492656518985</v>
+        <v>3.683492656518984</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>1356</v>
       </c>
       <c r="B1356">
-        <v>5.368211522263728</v>
+        <v>5.368211522263727</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>0.7526914178835465</v>
+        <v>0.7526914178835464</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>24.82273598226569</v>
+        <v>24.82273598226568</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>42.66938480285991</v>
+        <v>42.6693848028599</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>38.9066457374869</v>
+        <v>38.90664573748689</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>2.989002216203195</v>
+        <v>2.989002216203194</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>3.862969360595193</v>
+        <v>3.862969360595192</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>4.564903805292981</v>
+        <v>4.56490380529298</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>1380</v>
       </c>
       <c r="B1380">
-        <v>4.644794970432064</v>
+        <v>4.644794970432063</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>3.21967843073354</v>
+        <v>3.219678430733539</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11511,7 +11511,7 @@
         <v>1396</v>
       </c>
       <c r="B1396">
-        <v>47.56601571681367</v>
+        <v>47.56601571681366</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>1413</v>
       </c>
       <c r="B1413">
-        <v>0.839718862814033</v>
+        <v>0.8397188628140329</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>75.00098178797953</v>
+        <v>75.00098178797951</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>34.96542640956913</v>
+        <v>34.96542640956912</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>8.335497174502118</v>
+        <v>8.335497174502116</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>5.667114674594434</v>
+        <v>5.667114674594433</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>49.19666297592539</v>
+        <v>49.19666297592538</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>38.4532648406778</v>
+        <v>38.45326484067779</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>75.6759243900166</v>
+        <v>75.67592439001659</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>6.317351388072361</v>
+        <v>6.31735138807236</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>89.62405433302601</v>
+        <v>89.624054333026</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>94.90548752074211</v>
+        <v>94.9054875207421</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>48.09618122575204</v>
+        <v>48.09618122575203</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>49.8258864959313</v>
+        <v>49.82588649593129</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>0.391727542405914</v>
+        <v>0.3917275424059139</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>0.8036945707417805</v>
+        <v>0.8036945707417804</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>53.97108326675737</v>
+        <v>53.97108326675736</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>2.715915691668167</v>
+        <v>2.715915691668166</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>4.495826961480502</v>
+        <v>4.495826961480501</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>6.016748423717419</v>
+        <v>6.016748423717418</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>4.322299599489119</v>
+        <v>4.322299599489118</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>54.2612235950321</v>
+        <v>54.26122359503209</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>60.75010946203295</v>
+        <v>60.75010946203294</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>5.212063272864963</v>
+        <v>5.212063272864962</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>5.685021315056642</v>
+        <v>5.685021315056641</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>5.995705923141535</v>
+        <v>5.995705923141534</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>51.28801790781275</v>
+        <v>51.28801790781274</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>4.053846528075327</v>
+        <v>4.053846528075326</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>0.9096925040048158</v>
+        <v>0.9096925040048156</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>36.62391541735368</v>
+        <v>36.62391541735367</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>0.4418221750442977</v>
+        <v>0.4418221750442976</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13735,7 +13735,7 @@
         <v>1674</v>
       </c>
       <c r="B1674">
-        <v>0.1587184824078248</v>
+        <v>0.1587184824078247</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>0.3985062755301509</v>
+        <v>0.3985062755301508</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13767,7 +13767,7 @@
         <v>1678</v>
       </c>
       <c r="B1678">
-        <v>3.664794724252391</v>
+        <v>3.66479472425239</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>16.44852412355641</v>
+        <v>16.4485241235564</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13983,7 +13983,7 @@
         <v>1705</v>
       </c>
       <c r="B1705">
-        <v>9.904892586533622</v>
+        <v>9.90489258653362</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>0.673875823456351</v>
+        <v>0.6738758234563509</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>2.210151277408737</v>
+        <v>2.210151277408736</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>37.92075476343013</v>
+        <v>37.92075476343012</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>4.087901382767775</v>
+        <v>4.087901382767774</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>2.368479975335142</v>
+        <v>2.368479975335141</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14671,7 +14671,7 @@
         <v>1791</v>
       </c>
       <c r="B1791">
-        <v>0.8371105305699471</v>
+        <v>0.837110530569947</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>43.54097807183875</v>
+        <v>43.54097807183874</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>6.108186587779759</v>
+        <v>6.108186587779758</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>5.383451216274118</v>
+        <v>5.383451216274117</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>4.884585694264777</v>
+        <v>4.884585694264776</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>60.78615719978829</v>
+        <v>60.78615719978828</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>6.219436354055605</v>
+        <v>6.219436354055604</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>4.841680094204755</v>
+        <v>4.841680094204754</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>3.89066457374869</v>
+        <v>3.890664573748689</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>4.756367114850438</v>
+        <v>4.756367114850437</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>4.490434454369133</v>
+        <v>4.490434454369132</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>6.403191895296269</v>
+        <v>6.403191895296268</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15415,7 +15415,7 @@
         <v>1884</v>
       </c>
       <c r="B1884">
-        <v>3.846879760572685</v>
+        <v>3.846879760572684</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>2.227545043553288</v>
+        <v>2.227545043553287</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>24.50639510313464</v>
+        <v>24.50639510313463</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>3.181755038330762</v>
+        <v>3.181755038330761</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>2.862439488157293</v>
+        <v>2.862439488157292</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15671,7 +15671,7 @@
         <v>1916</v>
       </c>
       <c r="B1916">
-        <v>0.3435056337045762</v>
+        <v>0.3435056337045761</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>51.15056759068058</v>
+        <v>51.15056759068057</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>51.46122289166161</v>
+        <v>51.4612228916616</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>33.54139423271365</v>
+        <v>33.54139423271364</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>9.238009438059731</v>
+        <v>9.238009438059729</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>6.895756389974392</v>
+        <v>6.895756389974391</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>3.703333565836358</v>
+        <v>3.703333565836357</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>6.437539821027379</v>
+        <v>6.437539821027378</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>0.2232503805527437</v>
+        <v>0.2232503805527436</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>0.3412724323899768</v>
+        <v>0.3412724323899767</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>6.417757525917738</v>
+        <v>6.417757525917737</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16343,7 +16343,7 @@
         <v>2000</v>
       </c>
       <c r="B2000">
-        <v>0.4961897834263639</v>
+        <v>0.4961897834263638</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>0.7578963595301721</v>
+        <v>0.757896359530172</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>17.21534449621382</v>
+        <v>17.21534449621381</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16855,7 +16855,7 @@
         <v>2064</v>
       </c>
       <c r="B2064">
-        <v>2.874780709595322</v>
+        <v>2.874780709595321</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>24.11986371024419</v>
+        <v>24.11986371024418</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>6.664406112055127</v>
+        <v>6.664406112055126</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>8.273073043267251</v>
+        <v>8.273073043267249</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>7.899114397935374</v>
+        <v>7.899114397935373</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>6.605879825634456</v>
+        <v>6.605879825634455</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>5.309773157154656</v>
+        <v>5.309773157154655</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>3.336203475705291</v>
+        <v>3.33620347570529</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17191,7 +17191,7 @@
         <v>2106</v>
       </c>
       <c r="B2106">
-        <v>7.406579210361117</v>
+        <v>7.406579210361116</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>8.257833349256861</v>
+        <v>8.25783334925686</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>41.14600154389824</v>
+        <v>41.14600154389823</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>59.44330570064201</v>
+        <v>59.443305700642</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>2.939619746188758</v>
+        <v>2.939619746188757</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>48.52670258154556</v>
+        <v>48.52670258154555</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>2.353275449849391</v>
+        <v>2.35327544984939</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>0.9694291738151578</v>
+        <v>0.9694291738151576</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>0.7095454995718233</v>
+        <v>0.7095454995718232</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>0.5884631999488885</v>
+        <v>0.5884631999488884</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>1.369233754046579</v>
+        <v>1.369233754046578</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>0.9039248659639606</v>
+        <v>0.9039248659639604</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>0.7287563061560745</v>
+        <v>0.7287563061560743</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -18167,7 +18167,7 @@
         <v>2228</v>
       </c>
       <c r="B2228">
-        <v>0.39800512405404</v>
+        <v>0.3980051240540399</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>0.4204191970908597</v>
+        <v>0.4204191970908596</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>0.5695835636383246</v>
+        <v>0.5695835636383245</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>2.921355559059383</v>
+        <v>2.921355559059382</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18495,7 +18495,7 @@
         <v>2269</v>
       </c>
       <c r="B2269">
-        <v>8.770678359810349</v>
+        <v>8.770678359810347</v>
       </c>
     </row>
     <row r="2270" spans="1:2">
@@ -18751,7 +18751,7 @@
         <v>2301</v>
       </c>
       <c r="B2301">
-        <v>0.9329330373706606</v>
+        <v>0.9329330373706604</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>0.4060440626445207</v>
+        <v>0.4060440626445206</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>1.106894144499262</v>
+        <v>1.106894144499261</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>3.41870297308846</v>
+        <v>3.418702973088459</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>0.4230304600453323</v>
+        <v>0.4230304600453322</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>7.854508985851117</v>
+        <v>7.854508985851116</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>1.30473467985799</v>
+        <v>1.304734679857989</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>0.7829568640461037</v>
+        <v>0.7829568640461035</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>3.285912485471004</v>
+        <v>3.285912485471003</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>0.6301584166192381</v>
+        <v>0.630158416619238</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>30.27072144125304</v>
+        <v>30.27072144125303</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21711,7 +21711,7 @@
         <v>2671</v>
       </c>
       <c r="B2671">
-        <v>0.5272377292621468</v>
+        <v>0.5272377292621467</v>
       </c>
     </row>
     <row r="2672" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>0.5383920129935976</v>
+        <v>0.5383920129935975</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>7.949083010027134</v>
+        <v>7.949083010027133</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -22071,7 +22071,7 @@
         <v>2716</v>
       </c>
       <c r="B2716">
-        <v>0.8763263662532217</v>
+        <v>0.8763263662532216</v>
       </c>
     </row>
     <row r="2717" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>7.796246463365242</v>
+        <v>7.796246463365241</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>2.029361615079326</v>
+        <v>2.029361615079325</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -25727,7 +25727,7 @@
         <v>3173</v>
       </c>
       <c r="B3173">
-        <v>8.564942490670084</v>
+        <v>8.564942490670083</v>
       </c>
     </row>
     <row r="3174" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>9.642095786165992</v>
+        <v>9.64209578616599</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>3.496689176476244</v>
+        <v>3.496689176476243</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>5.069132527309825</v>
+        <v>5.069132527309824</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>1.891222581006301</v>
+        <v>1.8912225810063</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>7.679692111289625</v>
+        <v>7.679692111289624</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>0.3573708245436445</v>
+        <v>0.3573708245436444</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>0.3895558860094334</v>
+        <v>0.3895558860094333</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>6.924946265425063</v>
+        <v>6.924946265425062</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>0.6161115217361999</v>
+        <v>0.6161115217361998</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>0.2969307842405152</v>
+        <v>0.2969307842405151</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53151,7 +53151,7 @@
         <v>6601</v>
       </c>
       <c r="B6601">
-        <v>0.7482660451997603</v>
+        <v>0.7482660451997601</v>
       </c>
     </row>
     <row r="6602" spans="1:2">
@@ -53767,7 +53767,7 @@
         <v>6678</v>
       </c>
       <c r="B6678">
-        <v>0.552726117494524</v>
+        <v>0.5527261174945239</v>
       </c>
     </row>
     <row r="6679" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>0.5515860711541314</v>
+        <v>0.5515860711541313</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>1.878764131152807</v>
+        <v>1.878764131152806</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>1.317448101515119</v>
+        <v>1.317448101515118</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>4.099653531418095</v>
+        <v>4.099653531418094</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>2.439945348112711</v>
+        <v>2.43994534811271</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>1.164593970590908</v>
+        <v>1.164593970590907</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55079,7 +55079,7 @@
         <v>6842</v>
       </c>
       <c r="B6842">
-        <v>23.08831226836399</v>
+        <v>23.08831226836398</v>
       </c>
     </row>
     <row r="6843" spans="1:2">
@@ -55247,7 +55247,7 @@
         <v>6863</v>
       </c>
       <c r="B6863">
-        <v>0.4198682235381764</v>
+        <v>0.4198682235381763</v>
       </c>
     </row>
     <row r="6864" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>0.5715764467012218</v>
+        <v>0.5715764467012217</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>35.51552074913647</v>
+        <v>35.51552074913646</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>2.266028201639909</v>
+        <v>2.266028201639908</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>8.196083281410916</v>
+        <v>8.196083281410914</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>0.2629867104006809</v>
+        <v>0.2629867104006808</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>3.266774946646418</v>
+        <v>3.266774946646417</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>2.980532463185882</v>
+        <v>2.980532463185881</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58335,7 +58335,7 @@
         <v>7249</v>
       </c>
       <c r="B7249">
-        <v>6.091071239121936</v>
+        <v>6.091071239121935</v>
       </c>
     </row>
     <row r="7250" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>0.8582585367197497</v>
+        <v>0.8582585367197496</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>6.751389596329814</v>
+        <v>6.751389596329813</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>5.921295186425419</v>
+        <v>5.921295186425418</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>6.448588599184912</v>
+        <v>6.448588599184911</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>6.665549089105905</v>
+        <v>6.665549089105904</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>1.848847439526257</v>
+        <v>1.848847439526256</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>8.087236697652092</v>
+        <v>8.08723669765209</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>3.9947634066812</v>
+        <v>3.994763406681199</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>6.117330404185993</v>
+        <v>6.117330404185992</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>1.506417376533568</v>
+        <v>1.506417376533567</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>5.255349865275244</v>
+        <v>5.255349865275243</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>4.251259179717609</v>
+        <v>4.251259179717608</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>54.44996134393001</v>
+        <v>54.44996134393</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>78.35312832818799</v>
+        <v>78.35312832818798</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>44.5702435596174</v>
+        <v>44.57024355961739</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60447,7 +60447,7 @@
         <v>7513</v>
       </c>
       <c r="B7513">
-        <v>69.14073329890726</v>
+        <v>69.14073329890725</v>
       </c>
     </row>
     <row r="7514" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>85.16585769290963</v>
+        <v>85.16585769290961</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>88.87291326093698</v>
+        <v>88.87291326093697</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>20.48847908439919</v>
+        <v>20.48847908439918</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60559,7 +60559,7 @@
         <v>7527</v>
       </c>
       <c r="B7527">
-        <v>6.791364486003221</v>
+        <v>6.79136448600322</v>
       </c>
     </row>
     <row r="7528" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>39.37028412064915</v>
+        <v>39.37028412064914</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>74.52151756872956</v>
+        <v>74.52151756872955</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>86.18457262329646</v>
+        <v>86.18457262329645</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>6.381504638435329</v>
+        <v>6.381504638435328</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>13.28124679453552</v>
+        <v>13.28124679453551</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60823,7 +60823,7 @@
         <v>7560</v>
       </c>
       <c r="B7560">
-        <v>30.31526823912956</v>
+        <v>30.31526823912955</v>
       </c>
     </row>
     <row r="7561" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>44.82990449987135</v>
+        <v>44.82990449987134</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>55.94784742252814</v>
+        <v>55.94784742252813</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60903,7 +60903,7 @@
         <v>7570</v>
       </c>
       <c r="B7570">
-        <v>7.402476215819858</v>
+        <v>7.402476215819857</v>
       </c>
     </row>
     <row r="7571" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>6.71941554601186</v>
+        <v>6.719415546011859</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>8.457971561558693</v>
+        <v>8.457971561558692</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>7.354324644167799</v>
+        <v>7.354324644167798</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>6.027592052147889</v>
+        <v>6.027592052147888</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>6.026243925370047</v>
+        <v>6.026243925370046</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>6.29795008531298</v>
+        <v>6.297950085312979</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>73.68098982984883</v>
+        <v>73.68098982984881</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>86.54622228500456</v>
+        <v>86.54622228500455</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>8.728622665762446</v>
+        <v>8.728622665762444</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>34.49387510836302</v>
+        <v>34.49387510836301</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>23.05194215246611</v>
+        <v>23.0519421524661</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>41.34206606876268</v>
+        <v>41.34206606876267</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>76.05545138508305</v>
+        <v>76.05545138508303</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>46.1267438459478</v>
+        <v>46.12674384594779</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>5.338435504735736</v>
+        <v>5.338435504735735</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61807,7 +61807,7 @@
         <v>7683</v>
       </c>
       <c r="B7683">
-        <v>55.39277087530356</v>
+        <v>55.39277087530355</v>
       </c>
     </row>
     <row r="7684" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>7.11101706787115</v>
+        <v>7.111017067871149</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>46.80666865564212</v>
+        <v>46.80666865564211</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>3.26486998489512</v>
+        <v>3.264869984895119</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>0.9140534010600968</v>
+        <v>0.9140534010600966</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>33.27118273506789</v>
+        <v>33.27118273506788</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>6.954282676395063</v>
+        <v>6.954282676395062</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>2.206933357404235</v>
+        <v>2.206933357404234</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>2.251175361400552</v>
+        <v>2.251175361400551</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>1.320103325125391</v>
+        <v>1.32010332512539</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>0.7684381247908206</v>
+        <v>0.7684381247908205</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62751,7 +62751,7 @@
         <v>7801</v>
       </c>
       <c r="B7801">
-        <v>7.489547621406144</v>
+        <v>7.489547621406143</v>
       </c>
     </row>
     <row r="7802" spans="1:2">
@@ -62791,7 +62791,7 @@
         <v>7806</v>
       </c>
       <c r="B7806">
-        <v>36.59841823699014</v>
+        <v>36.59841823699013</v>
       </c>
     </row>
     <row r="7807" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>0.07420207013658869</v>
+        <v>0.0742020701365886</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>0.8461840099269023</v>
+        <v>0.8461840099269022</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>5.303413515615705</v>
+        <v>5.303413515615704</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>41.42119524920124</v>
+        <v>41.42119524920123</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>0.3657702405116786</v>
+        <v>0.3657702405116785</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>0.8534521716857036</v>
+        <v>0.8534521716857035</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>63.68785355357427</v>
+        <v>63.68785355357426</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>6.597410072617143</v>
+        <v>6.597410072617142</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>5.713947426572517</v>
+        <v>5.713947426572516</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>3.59565926623218</v>
+        <v>3.595659266232179</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>57.33876257201489</v>
+        <v>57.33876257201488</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>11.60127567961709</v>
+        <v>11.60127567961708</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>7.819311154107889</v>
+        <v>7.819311154107888</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>65.23292406939689</v>
+        <v>65.23292406939687</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>4.301550169951896</v>
+        <v>4.301550169951895</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>7.206939218825008</v>
+        <v>7.206939218825007</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>5.155441948195591</v>
+        <v>5.15544194819559</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>6.232946928937894</v>
+        <v>6.232946928937893</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>9.004373206038906</v>
+        <v>9.004373206038904</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>6.781634527519665</v>
+        <v>6.781634527519664</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>1.897977868447445</v>
+        <v>1.897977868447444</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65263,7 +65263,7 @@
         <v>8115</v>
       </c>
       <c r="B8115">
-        <v>41.232750571342</v>
+        <v>41.23275057134199</v>
       </c>
     </row>
     <row r="8116" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>52.49576365813616</v>
+        <v>52.49576365813615</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>8.638298171647019</v>
+        <v>8.638298171647017</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>9.397410775987636</v>
+        <v>9.397410775987634</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>5.773792532667164</v>
+        <v>5.773792532667163</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>58.57933227866836</v>
+        <v>58.57933227866835</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>40.00712748766025</v>
+        <v>40.00712748766024</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>56.16677148840817</v>
+        <v>56.16677148840816</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65671,7 +65671,7 @@
         <v>8166</v>
       </c>
       <c r="B8166">
-        <v>91.60316305710607</v>
+        <v>91.60316305710606</v>
       </c>
     </row>
     <row r="8167" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>88.94911173098893</v>
+        <v>88.94911173098892</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>28.83364760317713</v>
+        <v>28.83364760317712</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>45.82107075262402</v>
+        <v>45.82107075262401</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>40.87579004625248</v>
+        <v>40.87579004625247</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>38.73314768259938</v>
+        <v>38.73314768259937</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>87.22966394716282</v>
+        <v>87.22966394716281</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>82.12114267225691</v>
+        <v>82.12114267225689</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>58.39381831119573</v>
+        <v>58.39381831119572</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>18.86102629960887</v>
+        <v>18.86102629960886</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>66.20123078113397</v>
+        <v>66.20123078113396</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>9.999320075190306</v>
+        <v>9.999320075190305</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>7.721366812987268</v>
+        <v>7.721366812987267</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>85.23209174764709</v>
+        <v>85.23209174764708</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>84.41207898147265</v>
+        <v>84.41207898147263</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>75.98657969099763</v>
+        <v>75.98657969099762</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>84.19491334182459</v>
+        <v>84.19491334182457</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>95.86382981716471</v>
+        <v>95.8638298171647</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>60.19005070715112</v>
+        <v>60.19005070715111</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>81.26742673663641</v>
+        <v>81.26742673663639</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>23.10237967821973</v>
+        <v>23.10237967821972</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>61.90949849097723</v>
+        <v>61.90949849097722</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>9.686613276938653</v>
+        <v>9.686613276938649</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>3.122701224040501</v>
+        <v>3.1227012240405</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>27.02835931212711</v>
+        <v>27.0283593121271</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>56.65590705193395</v>
+        <v>56.65590705193394</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>7.467948285856803</v>
+        <v>7.467948285856802</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>5.489455010957927</v>
+        <v>5.489455010957926</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>28.4885564551534</v>
+        <v>28.48855645515339</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>57.31092082334206</v>
+        <v>57.31092082334205</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>53.45645052286805</v>
+        <v>53.45645052286804</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>5.670367763123575</v>
+        <v>5.670367763123574</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>3.978878956385755</v>
+        <v>3.978878956385754</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>4.570999682897137</v>
+        <v>4.570999682897136</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>8.050778660442621</v>
+        <v>8.050778660442619</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>53.54026883992519</v>
+        <v>53.54026883992518</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>6.195638985716305</v>
+        <v>6.195638985716304</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>5.135366582047289</v>
+        <v>5.135366582047288</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>5.106997305504871</v>
+        <v>5.10699730550487</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>36.95010348338376</v>
+        <v>36.95010348338375</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>85.69309249146139</v>
+        <v>85.69309249146137</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>37.1332728825471</v>
+        <v>37.13327288254709</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>31.3597734209186</v>
+        <v>31.35977342091859</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>57.05858665905464</v>
+        <v>57.05858665905463</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>82.74772855291486</v>
+        <v>82.74772855291485</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>98.51846728535918</v>
+        <v>98.51846728535916</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>80.24343652755367</v>
+        <v>80.24343652755365</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>17.91341040320128</v>
+        <v>17.91341040320127</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68775,7 +68775,7 @@
         <v>8554</v>
       </c>
       <c r="B8554">
-        <v>33.10823523757218</v>
+        <v>33.10823523757217</v>
       </c>
     </row>
     <row r="8555" spans="1:2">
@@ -68791,7 +68791,7 @@
         <v>8556</v>
       </c>
       <c r="B8556">
-        <v>27.18140100851607</v>
+        <v>27.18140100851606</v>
       </c>
     </row>
     <row r="8557" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>36.98585815010044</v>
+        <v>36.98585815010043</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>38.95236481951807</v>
+        <v>38.95236481951806</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>36.34872171205068</v>
+        <v>36.34872171205067</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>62.73478653584758</v>
+        <v>62.73478653584757</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69079,7 +69079,7 @@
         <v>8592</v>
       </c>
       <c r="B8592">
-        <v>82.58009191880058</v>
+        <v>82.58009191880056</v>
       </c>
     </row>
     <row r="8593" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>82.61848422486521</v>
+        <v>82.6184842248652</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>61.49656139750339</v>
+        <v>61.49656139750338</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>72.11130134677866</v>
+        <v>72.11130134677865</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>38.98049963922956</v>
+        <v>38.98049963922955</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>52.85272418322568</v>
+        <v>52.85272418322567</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>5.345762280702269</v>
+        <v>5.345762280702268</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>41.43643494321163</v>
+        <v>41.43643494321162</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>16.19364024123264</v>
+        <v>16.19364024123263</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>35.80859178779782</v>
+        <v>35.80859178779781</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>51.33666770023054</v>
+        <v>51.33666770023053</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69799,7 +69799,7 @@
         <v>8682</v>
       </c>
       <c r="B8682">
-        <v>5.639419461440937</v>
+        <v>5.639419461440936</v>
       </c>
     </row>
     <row r="8683" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>44.66666393133698</v>
+        <v>44.66666393133697</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>51.65259827990747</v>
+        <v>51.65259827990746</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>6.051096349448529</v>
+        <v>6.051096349448528</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69935,7 +69935,7 @@
         <v>8699</v>
       </c>
       <c r="B8699">
-        <v>6.96559521848739</v>
+        <v>6.965595218487389</v>
       </c>
     </row>
     <row r="8700" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>5.923200148176718</v>
+        <v>5.923200148176717</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>7.787425025101535</v>
+        <v>7.787425025101534</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>9.029987614817909</v>
+        <v>9.029987614817903</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>37.58167157169896</v>
+        <v>37.58167157169895</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>7.965348452672838</v>
+        <v>7.965348452672837</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>6.431443943423223</v>
+        <v>6.431443943423222</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
